--- a/Computacion/ASM/4) Preparcial 2.xlsx
+++ b/Computacion/ASM/4) Preparcial 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Computacion\ASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FEFA8-02CD-43EA-8D01-C77CDD438BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78315EA-A448-43A6-B146-AB75CDBB6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2370" windowWidth="10635" windowHeight="11385" xr2:uid="{69EA3C11-74BD-4E0E-A92C-14D1EAF651E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{69EA3C11-74BD-4E0E-A92C-14D1EAF651E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
